--- a/medicine/Sexualité et sexologie/Hugo_Hayn/Hugo_Hayn.xlsx
+++ b/medicine/Sexualité et sexologie/Hugo_Hayn/Hugo_Hayn.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hugo Nay, connu sous son pseudonyme d'Hugo Hayn (1843-1923), est un éditeur et bibliographe allemand. Son travail de bibliographie sur le thème de l'érotisme l'a mené à faire paraître plusieurs catalogues bibliothécaires extrêmement complets sur le sujet. Son travail bibliographique est comparable à celui qu'a mené Jules Gay pour la littérature érotique française de l'époque. Le sujet de son travail fait qu'à l'époque, bien peu de ses ouvrages trouvèrent acquéreur ou même vendeur, et il mourut dans le dénuement.
 </t>
